--- a/app/config/tables/selects_demo/forms/selects_demo/selects_demo.xlsx
+++ b/app/config/tables/selects_demo/forms/selects_demo/selects_demo.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\selects_demo\forms\selects_demo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="1178" yWindow="0" windowWidth="25606" windowHeight="16063" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -201,9 +206,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -718,6 +720,9 @@
   </si>
   <si>
     <t>selected(data('color'), 'none')</t>
+  </si>
+  <si>
+    <t>table_id</t>
   </si>
 </sst>
 </file>
@@ -1096,6 +1101,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1390,29 +1398,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.375" customWidth="1"/>
+    <col min="2" max="2" width="34.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="32.625" customWidth="1"/>
     <col min="8" max="8" width="46" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1421,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1430,77 +1438,77 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" t="s">
         <v>141</v>
       </c>
-      <c r="M1" t="s">
-        <v>142</v>
-      </c>
       <c r="N1" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="P1" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q1" t="s">
         <v>201</v>
       </c>
-      <c r="Q1" t="s">
-        <v>202</v>
-      </c>
       <c r="R1" t="s">
+        <v>203</v>
+      </c>
+      <c r="S1" t="s">
         <v>204</v>
       </c>
-      <c r="S1" t="s">
-        <v>205</v>
-      </c>
       <c r="T1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" t="s">
         <v>128</v>
       </c>
-      <c r="H3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>55</v>
@@ -1509,28 +1517,28 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="D5" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
         <v>14</v>
@@ -1538,36 +1546,36 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1">
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" s="5"/>
       <c r="G7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" t="s">
         <v>187</v>
       </c>
-      <c r="H7" t="s">
-        <v>188</v>
-      </c>
       <c r="V7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="D8" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" t="s">
         <v>132</v>
       </c>
-      <c r="H8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1575,10 +1583,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1">
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="D10" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>22</v>
@@ -1587,19 +1595,19 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="D12" t="s">
         <v>11</v>
@@ -1611,253 +1619,253 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1">
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1">
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="D27" t="s">
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="D30" t="s">
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="D33" t="s">
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="D36" t="s">
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="D40" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>42</v>
@@ -1866,101 +1874,101 @@
         <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="D42" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E42" s="5"/>
       <c r="G42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H42" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="D44" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s">
+        <v>222</v>
+      </c>
+      <c r="G44" t="s">
+        <v>183</v>
+      </c>
+      <c r="H44" t="s">
         <v>223</v>
       </c>
-      <c r="G44" t="s">
-        <v>184</v>
-      </c>
-      <c r="H44" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1">
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D46" t="s">
+        <v>188</v>
+      </c>
+      <c r="G46" t="s">
+        <v>184</v>
+      </c>
+      <c r="H46" t="s">
         <v>189</v>
-      </c>
-      <c r="G46" t="s">
-        <v>185</v>
-      </c>
-      <c r="H46" t="s">
-        <v>190</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1">
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>37</v>
@@ -1975,13 +1983,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1">
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>55</v>
@@ -1993,190 +2001,190 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1">
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>57</v>
       </c>
       <c r="G51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s">
         <v>7</v>
       </c>
       <c r="J51" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="12.75" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="12.75" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K53" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="12.75" customHeight="1">
+    <row r="54" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D54" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G54" t="s">
+        <v>82</v>
+      </c>
+      <c r="H54" t="s">
         <v>80</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G54" t="s">
-        <v>83</v>
-      </c>
-      <c r="H54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1">
+    </row>
+    <row r="55" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D55" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G55" t="s">
         <v>84</v>
       </c>
-      <c r="E55" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>85</v>
       </c>
-      <c r="H55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1">
+    </row>
+    <row r="56" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D56" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56" t="s">
         <v>87</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>88</v>
       </c>
-      <c r="H56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="12.75" customHeight="1">
+    </row>
+    <row r="57" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="12.75" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K59" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="12.75" customHeight="1">
+    <row r="60" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H60" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="12.75" customHeight="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="12.75" customHeight="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D62" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="G62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="12.75" customHeight="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="17.5" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="7" t="s">
         <v>9</v>
@@ -2185,7 +2193,7 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="1:21" ht="17.5" customHeight="1">
+    <row r="65" spans="1:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65"/>
       <c r="D65" s="7" t="s">
@@ -2193,69 +2201,69 @@
       </c>
       <c r="E65" s="7"/>
       <c r="H65" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I65" s="5"/>
       <c r="K65" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="17.5" customHeight="1">
+    <row r="66" spans="1:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66"/>
       <c r="D66" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E66" s="7"/>
       <c r="G66" t="s">
+        <v>162</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I66" t="s">
         <v>163</v>
       </c>
-      <c r="H66" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="N66" t="s">
         <v>164</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>165</v>
       </c>
-      <c r="O66" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" ht="17.5" customHeight="1">
+    </row>
+    <row r="67" spans="1:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67"/>
       <c r="D67" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E67" s="7"/>
       <c r="G67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="1:21" ht="17.5" customHeight="1">
+    <row r="68" spans="1:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68"/>
       <c r="D68" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E68" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G68" t="s">
         <v>169</v>
       </c>
-      <c r="G68" t="s">
-        <v>170</v>
-      </c>
       <c r="H68" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="1:21" ht="17.5" customHeight="1">
+    <row r="69" spans="1:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="7" t="s">
         <v>14</v>
@@ -2264,95 +2272,95 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="1:21" ht="17.5" customHeight="1">
+    <row r="70" spans="1:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E70" s="7"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="1:21" ht="12.75" customHeight="1">
+    <row r="71" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="D71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E71" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U71" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="12.75" customHeight="1">
+    <row r="72" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" ht="12.75" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" ht="12.75" customHeight="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P74" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R74" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T74" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U74" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="12.75" customHeight="1">
+    <row r="75" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2374,26 +2382,26 @@
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.75" customHeight="1">
+    <row r="1" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2404,7 +2412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.75" customHeight="1">
+    <row r="3" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2415,7 +2423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.75" customHeight="1">
+    <row r="4" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2426,7 +2434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.75" customHeight="1">
+    <row r="5" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2437,7 +2445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.75" customHeight="1">
+    <row r="6" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2448,18 +2456,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.75" customHeight="1">
+    <row r="7" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.75" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2470,7 +2478,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.75" customHeight="1">
+    <row r="9" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2481,19 +2489,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.75" customHeight="1">
+    <row r="10" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.75" customHeight="1"/>
-    <row r="12" spans="1:4" ht="16.75" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2504,7 +2512,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.75" customHeight="1">
+    <row r="13" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2515,8 +2523,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.75" customHeight="1"/>
-    <row r="15" spans="1:4" ht="16.75" customHeight="1">
+    <row r="14" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -2527,7 +2535,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.75" customHeight="1">
+    <row r="16" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -2538,7 +2546,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.75" customHeight="1">
+    <row r="17" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2549,54 +2557,54 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.75" customHeight="1">
+    <row r="18" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
       <c r="B18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" t="s">
         <v>180</v>
       </c>
-      <c r="D18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.75" customHeight="1">
+    </row>
+    <row r="19" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.75" customHeight="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.75" customHeight="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>42</v>
       </c>
       <c r="B21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" t="s">
         <v>221</v>
       </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.75" customHeight="1"/>
-    <row r="23" spans="1:4" ht="16.75" customHeight="1">
-      <c r="A23" t="s">
-        <v>223</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
@@ -2605,9 +2613,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.75" customHeight="1">
+    <row r="24" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
@@ -2616,9 +2624,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.75" customHeight="1">
+    <row r="25" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
@@ -2627,148 +2635,148 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.75" customHeight="1">
+    <row r="26" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" t="s">
         <v>180</v>
       </c>
-      <c r="D26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.75" customHeight="1">
+    </row>
+    <row r="27" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.75" customHeight="1"/>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" t="s">
         <v>117</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>119</v>
       </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1">
+    <row r="34" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" t="s">
         <v>93</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" t="s">
         <v>99</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="36" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
         <v>100</v>
       </c>
-      <c r="D35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1">
+    <row r="40" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B40" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" t="s">
         <v>177</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A41" t="s">
-        <v>169</v>
-      </c>
-      <c r="B41" t="s">
-        <v>178</v>
-      </c>
-      <c r="D41" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2790,19 +2798,19 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="87.33203125" customWidth="1"/>
+    <col min="1" max="2" width="28.375" customWidth="1"/>
+    <col min="3" max="3" width="87.375" customWidth="1"/>
     <col min="4" max="4" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="34.5" customHeight="1">
+    <row r="1" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
         <v>49</v>
@@ -2811,102 +2819,102 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34.5" customHeight="1">
+    <row r="2" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="34.5" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="34.5" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="34.5" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.25" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
         <v>192</v>
       </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>193</v>
       </c>
-      <c r="D6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>196</v>
       </c>
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
         <v>199</v>
       </c>
-      <c r="D7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" t="s">
-        <v>200</v>
-      </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2924,122 +2932,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.75" customHeight="1">
+    <row r="1" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.75" customHeight="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="16.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="B3">
         <v>20141006</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.75" customHeight="1">
+    <row r="4" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.75" customHeight="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1">
+    <row r="6" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1">
+    <row r="7" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1">
+    <row r="8" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="12.75" customHeight="1">
+    <row r="9" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
-    <row r="12" spans="1:3" ht="12.75" customHeight="1">
+    <row r="12" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" ht="12.75" customHeight="1">
+    <row r="13" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="12.75" customHeight="1">
+    <row r="14" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="12.75" customHeight="1">
+    <row r="15" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1">
+    <row r="18" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1">
+    <row r="19" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" ht="12.75" customHeight="1">
+    <row r="20" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:3" ht="12.75" customHeight="1">
+    <row r="21" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
-    <row r="24" spans="1:3" ht="12.75" customHeight="1">
+    <row r="24" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" ht="12.75" customHeight="1">
+    <row r="25" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" ht="12.75" customHeight="1">
+    <row r="26" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:3" ht="12.75" customHeight="1">
+    <row r="27" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
     </row>
   </sheetData>

--- a/app/config/tables/selects_demo/forms/selects_demo/selects_demo.xlsx
+++ b/app/config/tables/selects_demo/forms/selects_demo/selects_demo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="228">
   <si>
     <t>comments</t>
   </si>
@@ -212,9 +212,6 @@
     <t>setting_name</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>survey</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
   </si>
   <si>
     <t>end if</t>
-  </si>
-  <si>
-    <t>display.hint</t>
   </si>
   <si>
     <t>values_list</t>
@@ -462,12 +456,6 @@
     <t>Kingfisher selected</t>
   </si>
   <si>
-    <t>display.audio</t>
-  </si>
-  <si>
-    <t>display.video</t>
-  </si>
-  <si>
     <t>selected(data('bird'), 'bluethroat')</t>
   </si>
   <si>
@@ -565,9 +553,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>constraint_message</t>
   </si>
   <si>
     <t>male</t>
@@ -680,9 +665,6 @@
     <t>Record Location</t>
   </si>
   <si>
-    <t>buttonLabel</t>
-  </si>
-  <si>
     <t>If the main color is not listed above, enter it below.</t>
   </si>
   <si>
@@ -723,12 +705,33 @@
   </si>
   <si>
     <t>table_id</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.prompt.audio</t>
+  </si>
+  <si>
+    <t>display.prompt.video</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text</t>
+  </si>
+  <si>
+    <t>display.button_label.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1152,7 +1155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1185,9 +1188,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1220,6 +1240,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1398,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1413,6 +1450,10 @@
     <col min="7" max="7" width="32.625" customWidth="1"/>
     <col min="8" max="8" width="46" customWidth="1"/>
     <col min="10" max="10" width="25.375" customWidth="1"/>
+    <col min="12" max="12" width="22.75" customWidth="1"/>
+    <col min="13" max="13" width="24.625" customWidth="1"/>
+    <col min="15" max="15" width="31" customWidth="1"/>
+    <col min="22" max="22" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1420,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1429,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1438,49 +1479,49 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c r="I1" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L1" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="M1" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Q1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R1" t="s">
+        <v>198</v>
+      </c>
+      <c r="S1" t="s">
+        <v>199</v>
+      </c>
+      <c r="T1" t="s">
         <v>203</v>
       </c>
-      <c r="S1" t="s">
-        <v>204</v>
-      </c>
-      <c r="T1" t="s">
-        <v>208</v>
-      </c>
       <c r="U1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V1" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1493,14 +1534,14 @@
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1508,7 +1549,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>55</v>
@@ -1517,25 +1558,25 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="D5" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1549,30 +1590,30 @@
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E7" s="5"/>
       <c r="G7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="V7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="D8" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1586,7 +1627,7 @@
     <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="D10" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>22</v>
@@ -1595,13 +1636,13 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1622,16 +1663,16 @@
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1640,7 +1681,7 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -1649,16 +1690,16 @@
     <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1667,28 +1708,28 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1697,28 +1738,28 @@
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1727,7 +1768,7 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -1736,16 +1777,16 @@
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1754,7 +1795,7 @@
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
@@ -1763,16 +1804,16 @@
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1781,7 +1822,7 @@
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
@@ -1790,16 +1831,16 @@
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1808,7 +1849,7 @@
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -1817,16 +1858,16 @@
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1835,19 +1876,19 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1865,7 +1906,7 @@
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="D40" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>42</v>
@@ -1874,16 +1915,16 @@
         <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="5"/>
@@ -1891,20 +1932,20 @@
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="D42" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E42" s="5"/>
       <c r="G42" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H42" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="5"/>
@@ -1912,25 +1953,25 @@
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="D44" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G44" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H44" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1938,13 +1979,13 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G46" t="s">
+        <v>179</v>
+      </c>
+      <c r="H46" t="s">
         <v>184</v>
-      </c>
-      <c r="H46" t="s">
-        <v>189</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
@@ -1953,7 +1994,7 @@
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1965,10 +2006,10 @@
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>37</v>
@@ -1986,10 +2027,10 @@
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>55</v>
@@ -2004,40 +2045,40 @@
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>57</v>
       </c>
       <c r="G51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s">
         <v>7</v>
       </c>
       <c r="J51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K53" t="b">
         <v>1</v>
@@ -2046,79 +2087,79 @@
     <row r="54" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D54" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="G54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D55" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" t="s">
         <v>83</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G55" t="s">
-        <v>84</v>
-      </c>
-      <c r="H55" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D56" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" t="s">
         <v>86</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G56" t="s">
-        <v>87</v>
-      </c>
-      <c r="H56" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K59" t="b">
         <v>1</v>
@@ -2127,61 +2168,61 @@
     <row r="60" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D61" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="G61" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H61" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G62" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -2201,7 +2242,7 @@
       </c>
       <c r="E65" s="7"/>
       <c r="H65" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I65" s="5"/>
       <c r="K65" t="b">
@@ -2212,37 +2253,37 @@
       <c r="A66" s="2"/>
       <c r="B66"/>
       <c r="D66" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E66" s="7"/>
       <c r="G66" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I66" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N66" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O66" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67"/>
       <c r="D67" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E67" s="7"/>
       <c r="G67" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I67" s="5"/>
     </row>
@@ -2250,16 +2291,16 @@
       <c r="A68" s="2"/>
       <c r="B68"/>
       <c r="D68" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G68" t="s">
+        <v>165</v>
+      </c>
+      <c r="H68" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="I68" s="5"/>
     </row>
@@ -2275,10 +2316,10 @@
     <row r="70" spans="1:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E70" s="7"/>
       <c r="H70" s="5"/>
@@ -2287,28 +2328,28 @@
     <row r="71" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="D71" t="s">
+        <v>185</v>
+      </c>
+      <c r="E71" t="s">
         <v>190</v>
       </c>
-      <c r="E71" t="s">
-        <v>195</v>
-      </c>
       <c r="H71" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q71" t="s">
+        <v>200</v>
+      </c>
+      <c r="R71" t="s">
+        <v>158</v>
+      </c>
+      <c r="S71" t="s">
+        <v>163</v>
+      </c>
+      <c r="T71" t="s">
         <v>205</v>
-      </c>
-      <c r="R71" t="s">
-        <v>162</v>
-      </c>
-      <c r="S71" t="s">
-        <v>167</v>
-      </c>
-      <c r="T71" t="s">
-        <v>210</v>
       </c>
       <c r="U71" t="b">
         <v>1</v>
@@ -2317,42 +2358,42 @@
     <row r="72" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E74" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="P74" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q74" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R74" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="S74" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T74" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="U74" t="b">
         <v>1</v>
@@ -2360,7 +2401,7 @@
     </row>
     <row r="75" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2389,16 +2430,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>66</v>
-      </c>
-      <c r="D1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2461,10 +2502,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2494,10 +2535,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2562,10 +2603,10 @@
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2573,10 +2614,10 @@
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2584,10 +2625,10 @@
         <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2595,16 +2636,16 @@
         <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
@@ -2615,7 +2656,7 @@
     </row>
     <row r="24" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
@@ -2626,7 +2667,7 @@
     </row>
     <row r="25" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
@@ -2637,146 +2678,146 @@
     </row>
     <row r="26" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D26" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="s">
         <v>92</v>
-      </c>
-      <c r="B35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D40" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B41" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2807,10 +2848,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
         <v>49</v>
@@ -2824,13 +2865,13 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
@@ -2838,13 +2879,13 @@
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
@@ -2852,13 +2893,13 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
@@ -2866,55 +2907,55 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2933,7 +2974,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2950,15 +2991,15 @@
         <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>61</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -2972,15 +3013,15 @@
     </row>
     <row r="4" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B5" s="5" t="b">
         <v>1</v>

--- a/app/config/tables/selects_demo/forms/selects_demo/selects_demo.xlsx
+++ b/app/config/tables/selects_demo/forms/selects_demo/selects_demo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1178" yWindow="0" windowWidth="25606" windowHeight="16063" activeTab="3"/>
+    <workbookView xWindow="1178" yWindow="0" windowWidth="25606" windowHeight="16063" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="227">
   <si>
     <t>comments</t>
   </si>
@@ -222,12 +222,6 @@
   </si>
   <si>
     <t>data_value</t>
-  </si>
-  <si>
-    <t>display.image</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>clause</t>
@@ -726,6 +720,9 @@
   </si>
   <si>
     <t>display.button_label.text</t>
+  </si>
+  <si>
+    <t>display.title.image</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1470,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1479,49 +1476,49 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>194</v>
+      </c>
+      <c r="R1" t="s">
+        <v>196</v>
+      </c>
+      <c r="S1" t="s">
+        <v>197</v>
+      </c>
+      <c r="T1" t="s">
+        <v>201</v>
+      </c>
+      <c r="U1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V1" t="s">
         <v>225</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R1" t="s">
-        <v>198</v>
-      </c>
-      <c r="S1" t="s">
-        <v>199</v>
-      </c>
-      <c r="T1" t="s">
-        <v>203</v>
-      </c>
-      <c r="U1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1534,14 +1531,14 @@
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1549,7 +1546,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>55</v>
@@ -1558,25 +1555,25 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="D5" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1590,30 +1587,30 @@
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E7" s="5"/>
       <c r="G7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="V7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="D8" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1627,7 +1624,7 @@
     <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="D10" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>22</v>
@@ -1636,13 +1633,13 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1663,16 +1660,16 @@
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1681,7 +1678,7 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -1690,16 +1687,16 @@
     <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1708,28 +1705,28 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1738,28 +1735,28 @@
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1768,7 +1765,7 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -1777,16 +1774,16 @@
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1795,7 +1792,7 @@
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
@@ -1804,16 +1801,16 @@
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1822,7 +1819,7 @@
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
@@ -1831,16 +1828,16 @@
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1849,7 +1846,7 @@
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -1858,16 +1855,16 @@
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1876,19 +1873,19 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1906,7 +1903,7 @@
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="D40" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>42</v>
@@ -1915,16 +1912,16 @@
         <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="5"/>
@@ -1932,20 +1929,20 @@
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="D42" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E42" s="5"/>
       <c r="G42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="5"/>
@@ -1953,25 +1950,25 @@
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="D44" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H44" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1979,13 +1976,13 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
@@ -1994,7 +1991,7 @@
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2006,10 +2003,10 @@
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>37</v>
@@ -2027,10 +2024,10 @@
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>55</v>
@@ -2045,40 +2042,40 @@
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>57</v>
       </c>
       <c r="G51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H51" t="s">
         <v>7</v>
       </c>
       <c r="J51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K53" t="b">
         <v>1</v>
@@ -2087,79 +2084,79 @@
     <row r="54" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D54" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="G54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D55" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" t="s">
         <v>81</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G55" t="s">
-        <v>82</v>
-      </c>
-      <c r="H55" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D56" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" t="s">
+        <v>83</v>
+      </c>
+      <c r="H56" t="s">
         <v>84</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" t="s">
-        <v>85</v>
-      </c>
-      <c r="H56" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K59" t="b">
         <v>1</v>
@@ -2168,61 +2165,61 @@
     <row r="60" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H60" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D61" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="G61" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H61" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H62" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -2242,7 +2239,7 @@
       </c>
       <c r="E65" s="7"/>
       <c r="H65" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I65" s="5"/>
       <c r="K65" t="b">
@@ -2253,37 +2250,37 @@
       <c r="A66" s="2"/>
       <c r="B66"/>
       <c r="D66" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E66" s="7"/>
       <c r="G66" t="s">
+        <v>156</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I66" t="s">
+        <v>157</v>
+      </c>
+      <c r="N66" t="s">
         <v>158</v>
       </c>
-      <c r="H66" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="O66" t="s">
         <v>159</v>
-      </c>
-      <c r="N66" t="s">
-        <v>160</v>
-      </c>
-      <c r="O66" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67"/>
       <c r="D67" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E67" s="7"/>
       <c r="G67" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I67" s="5"/>
     </row>
@@ -2291,16 +2288,16 @@
       <c r="A68" s="2"/>
       <c r="B68"/>
       <c r="D68" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G68" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I68" s="5"/>
     </row>
@@ -2316,10 +2313,10 @@
     <row r="70" spans="1:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E70" s="7"/>
       <c r="H70" s="5"/>
@@ -2328,28 +2325,28 @@
     <row r="71" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="D71" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E71" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P71" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q71" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="R71" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S71" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="T71" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="U71" t="b">
         <v>1</v>
@@ -2358,42 +2355,42 @@
     <row r="72" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E74" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H74" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="P74" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>198</v>
+      </c>
+      <c r="R74" t="s">
+        <v>156</v>
+      </c>
+      <c r="S74" t="s">
+        <v>161</v>
+      </c>
+      <c r="T74" t="s">
         <v>202</v>
-      </c>
-      <c r="P74" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>200</v>
-      </c>
-      <c r="R74" t="s">
-        <v>158</v>
-      </c>
-      <c r="S74" t="s">
-        <v>163</v>
-      </c>
-      <c r="T74" t="s">
-        <v>204</v>
       </c>
       <c r="U74" t="b">
         <v>1</v>
@@ -2401,7 +2398,7 @@
     </row>
     <row r="75" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2419,8 +2416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2436,10 +2433,10 @@
         <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2502,10 +2499,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2535,10 +2532,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2603,10 +2600,10 @@
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2614,10 +2611,10 @@
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2625,10 +2622,10 @@
         <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2636,16 +2633,16 @@
         <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
@@ -2656,7 +2653,7 @@
     </row>
     <row r="24" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
@@ -2667,7 +2664,7 @@
     </row>
     <row r="25" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
@@ -2678,146 +2675,146 @@
     </row>
     <row r="26" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s">
         <v>90</v>
-      </c>
-      <c r="B35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D41" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2851,7 +2848,7 @@
         <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
         <v>49</v>
@@ -2865,13 +2862,13 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
@@ -2879,13 +2876,13 @@
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
@@ -2893,13 +2890,13 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
@@ -2907,55 +2904,55 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" t="s">
         <v>186</v>
-      </c>
-      <c r="B6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2973,7 +2970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2991,15 +2988,15 @@
         <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -3016,12 +3013,12 @@
         <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B5" s="5" t="b">
         <v>1</v>

--- a/app/config/tables/selects_demo/forms/selects_demo/selects_demo.xlsx
+++ b/app/config/tables/selects_demo/forms/selects_demo/selects_demo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1178" yWindow="0" windowWidth="25606" windowHeight="16063" activeTab="1"/>
+    <workbookView xWindow="1178" yWindow="0" windowWidth="25606" windowHeight="16063" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="228">
   <si>
     <t>comments</t>
   </si>
@@ -240,28 +240,6 @@
   </si>
   <si>
     <t>hideInContents</t>
-  </si>
-  <si>
-    <t>context.query.results ? _.map(context.query.results.place, function(place){
-place.label = place.name;
-place.data_value = place.name;
-place.display = {text:place.label};
-return place;
-}) : []</t>
-  </si>
-  <si>
-    <t>_.chain(context).pluck('region').uniq().map(function(region){
-return {name:region, label:region, data_value:region, display:{text:region}};
-}).value()</t>
-  </si>
-  <si>
-    <t>_.map(context, function(place){
-place.name = place.country;
-place.label = place.country;
-place.data_value = place.name;
-place.display = {text:place.label};
-return place;
-})</t>
   </si>
   <si>
     <t>country_csv</t>
@@ -723,6 +701,26 @@
   </si>
   <si>
     <t>display.title.image</t>
+  </si>
+  <si>
+    <t>context.query.results ? _.map(context.query.results.place, function(place) {
+return { data_value: place.name, display: {title: {text: place.name} } };
+}) : []</t>
+  </si>
+  <si>
+    <t>context.query.results ? _.map(context.query.results.place, function(place){
+return { data_value: place.name, display: {title: {text: place.name} } };
+}) : []</t>
+  </si>
+  <si>
+    <t>_.chain(context).pluck('region').uniq().map(function(region){
+return {data_value:region, display: {title: {text: region} } };
+}).value()</t>
+  </si>
+  <si>
+    <t>_.map(context, function(place){
+return {data_value: place.country, region: place.region, display: {title: {text: place.country} } };
+})</t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
@@ -1476,10 +1474,10 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -1488,37 +1486,37 @@
         <v>70</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P1" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>191</v>
+      </c>
+      <c r="R1" t="s">
         <v>193</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>194</v>
       </c>
-      <c r="R1" t="s">
-        <v>196</v>
-      </c>
-      <c r="S1" t="s">
-        <v>197</v>
-      </c>
       <c r="T1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="U1" t="s">
         <v>70</v>
       </c>
       <c r="V1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1531,14 +1529,14 @@
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1546,7 +1544,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>55</v>
@@ -1555,25 +1553,25 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="D5" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1587,30 +1585,30 @@
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E7" s="5"/>
       <c r="G7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="V7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="D8" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1624,7 +1622,7 @@
     <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="D10" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>22</v>
@@ -1633,7 +1631,7 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1669,7 +1667,7 @@
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1678,7 +1676,7 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -1696,7 +1694,7 @@
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1705,13 +1703,13 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1726,7 +1724,7 @@
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1735,19 +1733,19 @@
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1756,7 +1754,7 @@
         <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1765,7 +1763,7 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -1783,7 +1781,7 @@
         <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1792,7 +1790,7 @@
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
@@ -1810,7 +1808,7 @@
         <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1819,7 +1817,7 @@
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
@@ -1837,7 +1835,7 @@
         <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1846,7 +1844,7 @@
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -1864,7 +1862,7 @@
         <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1873,19 +1871,19 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1912,7 +1910,7 @@
         <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1921,7 +1919,7 @@
         <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="5"/>
@@ -1929,14 +1927,14 @@
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="D42" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E42" s="5"/>
       <c r="G42" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H42" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1950,16 +1948,16 @@
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="D44" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E44" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G44" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H44" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1968,7 +1966,7 @@
         <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1976,13 +1974,13 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G46" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H46" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
@@ -2003,7 +2001,7 @@
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>69</v>
@@ -2024,7 +2022,7 @@
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>69</v>
@@ -2042,40 +2040,40 @@
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>57</v>
       </c>
       <c r="G51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H51" t="s">
         <v>7</v>
       </c>
       <c r="J51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K53" t="b">
         <v>1</v>
@@ -2084,79 +2082,79 @@
     <row r="54" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D54" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" t="s">
         <v>75</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G54" t="s">
-        <v>78</v>
-      </c>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E55" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" t="s">
         <v>77</v>
       </c>
-      <c r="G55" t="s">
-        <v>80</v>
-      </c>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G56" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K59" t="b">
         <v>1</v>
@@ -2165,61 +2163,61 @@
     <row r="60" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D60" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="G60" t="s">
+        <v>96</v>
+      </c>
+      <c r="H60" t="s">
         <v>99</v>
-      </c>
-      <c r="H60" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s">
+        <v>97</v>
+      </c>
+      <c r="H61" t="s">
         <v>100</v>
-      </c>
-      <c r="H61" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s">
+        <v>98</v>
+      </c>
+      <c r="H62" t="s">
         <v>101</v>
-      </c>
-      <c r="H62" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -2239,7 +2237,7 @@
       </c>
       <c r="E65" s="7"/>
       <c r="H65" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I65" s="5"/>
       <c r="K65" t="b">
@@ -2250,37 +2248,37 @@
       <c r="A66" s="2"/>
       <c r="B66"/>
       <c r="D66" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E66" s="7"/>
       <c r="G66" t="s">
+        <v>153</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I66" t="s">
+        <v>154</v>
+      </c>
+      <c r="N66" t="s">
+        <v>155</v>
+      </c>
+      <c r="O66" t="s">
         <v>156</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I66" t="s">
-        <v>157</v>
-      </c>
-      <c r="N66" t="s">
-        <v>158</v>
-      </c>
-      <c r="O66" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67"/>
       <c r="D67" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E67" s="7"/>
       <c r="G67" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I67" s="5"/>
     </row>
@@ -2291,13 +2289,13 @@
         <v>69</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G68" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I68" s="5"/>
     </row>
@@ -2316,7 +2314,7 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E70" s="7"/>
       <c r="H70" s="5"/>
@@ -2325,28 +2323,28 @@
     <row r="71" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="D71" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E71" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P71" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q71" t="s">
         <v>195</v>
       </c>
-      <c r="Q71" t="s">
-        <v>198</v>
-      </c>
       <c r="R71" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="S71" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="T71" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="U71" t="b">
         <v>1</v>
@@ -2364,33 +2362,33 @@
         <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E74" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P74" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q74" t="s">
         <v>195</v>
       </c>
-      <c r="Q74" t="s">
-        <v>198</v>
-      </c>
       <c r="R74" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="S74" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="T74" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="U74" t="b">
         <v>1</v>
@@ -2416,7 +2414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2433,10 +2431,10 @@
         <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2499,10 +2497,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2532,10 +2530,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2600,10 +2598,10 @@
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2611,10 +2609,10 @@
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2622,10 +2620,10 @@
         <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -2633,16 +2631,16 @@
         <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
@@ -2653,7 +2651,7 @@
     </row>
     <row r="24" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
@@ -2664,7 +2662,7 @@
     </row>
     <row r="25" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
@@ -2675,146 +2673,146 @@
     </row>
     <row r="26" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B26" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D26" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D27" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" t="s">
         <v>88</v>
-      </c>
-      <c r="B36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D40" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2832,8 +2830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2848,7 +2846,7 @@
         <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
         <v>49</v>
@@ -2862,13 +2860,13 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
@@ -2876,13 +2874,13 @@
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
@@ -2890,13 +2888,13 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
@@ -2904,55 +2902,55 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
         <v>188</v>
       </c>
-      <c r="B7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" t="s">
-        <v>191</v>
-      </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
         <v>189</v>
       </c>
-      <c r="B8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" t="s">
-        <v>192</v>
-      </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2988,15 +2986,15 @@
         <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -3013,12 +3011,12 @@
         <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B5" s="5" t="b">
         <v>1</v>
